--- a/nsduh_yr_drugs.xlsx
+++ b/nsduh_yr_drugs.xlsx
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
